--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_22_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80426.26710321357</v>
+        <v>15244417.5530196</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80426.26710321357</v>
+        <v>15244417.5530196</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>235741.4134161037</v>
+        <v>27797011.26882932</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235741.4134161037</v>
+        <v>27797011.26882932</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1605349790.443095</v>
+        <v>33469719.00501148</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18694.00393835946</v>
+        <v>896661.4017231443</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36192.01066186749</v>
+        <v>1606605.442063337</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53299.14039020566</v>
+        <v>2316549.482403529</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>70137.72740107532</v>
+        <v>3026284.682749337</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>86976.31441194446</v>
+        <v>3736019.883095201</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>103814.9014228136</v>
+        <v>4445755.083441067</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>120653.4884336828</v>
+        <v>5155490.283786851</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137492.075444552</v>
+        <v>5865225.484132737</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155090.1878006486</v>
+        <v>6200508.048730757</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173202.0406946151</v>
+        <v>6614146.043673915</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191313.4240809471</v>
+        <v>7027755.868168826</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209425.4232798864</v>
+        <v>7441393.863104432</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227537.2761738767</v>
+        <v>7855031.858055292</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>247475.3052290411</v>
+        <v>8061932.805940597</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>267413.011081554</v>
+        <v>8268805.583367414</v>
       </c>
     </row>
   </sheetData>
